--- a/data/trans_orig/P1412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DC0342-EE5E-43ED-8403-7FEE73F56685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7C1497-D203-4190-9E60-9DED7874D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3328BC3D-AAEA-43B2-9886-0B86C92A0937}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57633D3A-2268-486D-A351-96B503017ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="181">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -76,523 +76,511 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DBB0A4-6E93-4B5F-8CCD-C63EF6417458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5186671D-CEB4-4867-AB6F-C1B3EF548BD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1289,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1298,13 +1286,13 @@
         <v>2111</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1313,13 +1301,13 @@
         <v>11583</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,13 +1322,13 @@
         <v>1954485</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1630</v>
@@ -1349,13 +1337,13 @@
         <v>1751534</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3478</v>
@@ -1364,13 +1352,13 @@
         <v>3706019</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,7 +1414,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1438,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1453,13 +1441,13 @@
         <v>1053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1468,13 +1456,13 @@
         <v>1053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,10 +1477,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1504,13 +1492,13 @@
         <v>457578</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -1519,13 +1507,13 @@
         <v>938759</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E1101E-2AE0-4FB5-B425-34D619C05BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6FADAF-F0B0-4F6E-9FE7-C2C897F7E190}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1882,10 +1870,10 @@
         <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -1894,13 +1882,13 @@
         <v>13633</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -1909,13 +1897,13 @@
         <v>27216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1918,13 @@
         <v>740764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>880</v>
@@ -1945,13 +1933,13 @@
         <v>981027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>1627</v>
@@ -1960,10 +1948,10 @@
         <v>1721791</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -2034,13 +2022,13 @@
         <v>8708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2049,13 +2037,13 @@
         <v>4525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2064,13 +2052,13 @@
         <v>13233</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2073,13 @@
         <v>2067677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>1904</v>
@@ -2100,13 +2088,13 @@
         <v>1983775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>3848</v>
@@ -2115,13 +2103,13 @@
         <v>4051452</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2165,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2189,13 +2177,13 @@
         <v>3863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2204,13 +2192,13 @@
         <v>1026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2246,7 +2234,7 @@
         <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -2255,13 +2243,13 @@
         <v>548114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1023</v>
@@ -2270,13 +2258,13 @@
         <v>1091137</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2332,13 @@
         <v>26154</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2359,13 +2347,13 @@
         <v>19183</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2374,13 +2362,13 @@
         <v>45338</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2383,13 @@
         <v>3351464</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2410,13 +2398,13 @@
         <v>3512917</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>6498</v>
@@ -2425,13 +2413,13 @@
         <v>6864380</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96330BBD-F98A-41D4-B8AD-37818AF40077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176A186-4DA2-4B82-88B5-37F6C7A19C2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2630,13 +2618,13 @@
         <v>12008</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2645,13 +2633,13 @@
         <v>10408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2660,13 +2648,13 @@
         <v>22416</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>527239</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>1404</v>
@@ -2696,13 +2684,13 @@
         <v>822783</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>2076</v>
@@ -2711,13 +2699,13 @@
         <v>1350022</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2773,13 @@
         <v>13707</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2800,13 +2788,13 @@
         <v>7934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -2815,13 +2803,13 @@
         <v>21641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2824,13 @@
         <v>2146127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>2903</v>
@@ -2851,13 +2839,13 @@
         <v>2238203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>4876</v>
@@ -2866,13 +2854,13 @@
         <v>4384329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2916,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2940,13 +2928,13 @@
         <v>6128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2955,13 +2943,13 @@
         <v>1359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2970,13 +2958,13 @@
         <v>7487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2979,13 @@
         <v>666911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1000</v>
@@ -3006,13 +2994,13 @@
         <v>712209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -3021,13 +3009,13 @@
         <v>1379120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3083,13 @@
         <v>31843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3110,13 +3098,13 @@
         <v>19700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -3125,13 +3113,13 @@
         <v>51543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3134,13 @@
         <v>3340277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>5307</v>
@@ -3161,13 +3149,13 @@
         <v>3773196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>8624</v>
@@ -3176,13 +3164,13 @@
         <v>7113473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7C1497-D203-4190-9E60-9DED7874D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9162A48-A06B-4388-B5C3-F85632725BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57633D3A-2268-486D-A351-96B503017ED0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{565697F0-A9E7-4CD5-962A-4034934698B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -76,471 +76,471 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
     <t>99,05%</t>
   </si>
   <si>
@@ -553,9 +553,6 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
   </si>
   <si>
     <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
   </si>
   <si>
     <t>99,28%</t>
@@ -992,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5186671D-CEB4-4867-AB6F-C1B3EF548BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA3F2D6-250A-4611-ABE3-47B1B8D33986}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1194,7 +1188,7 @@
         <v>2121</v>
       </c>
       <c r="N5" s="7">
-        <v>2276146</v>
+        <v>2276145</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1245,7 +1239,7 @@
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1277,7 +1271,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1286,13 +1280,13 @@
         <v>2111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1301,13 +1295,13 @@
         <v>11583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,13 +1316,13 @@
         <v>1954485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1630</v>
@@ -1337,13 +1331,13 @@
         <v>1751534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3478</v>
@@ -1352,13 +1346,13 @@
         <v>3706019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,7 +1408,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1426,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1441,13 +1435,13 @@
         <v>1053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1456,13 +1450,13 @@
         <v>1053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,10 +1471,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1492,13 +1486,13 @@
         <v>457578</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -1507,13 +1501,13 @@
         <v>938759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1575,13 @@
         <v>22968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1596,13 +1590,13 @@
         <v>24778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -1611,13 +1605,13 @@
         <v>47746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,7 +1626,7 @@
         <v>3396814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>70</v>
@@ -1743,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6FADAF-F0B0-4F6E-9FE7-C2C897F7E190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67520E59-4A1A-4DCD-9B07-CC965C801FBC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1885,10 +1879,10 @@
         <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -1897,10 +1891,10 @@
         <v>27216</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>87</v>
@@ -1939,7 +1933,7 @@
         <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7">
         <v>1627</v>
@@ -1948,13 +1942,13 @@
         <v>1721791</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,7 +2016,7 @@
         <v>8708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>96</v>
@@ -2037,7 +2031,7 @@
         <v>4525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>98</v>
@@ -2055,10 +2049,10 @@
         <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,10 +2070,10 @@
         <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>1904</v>
@@ -2088,13 +2082,13 @@
         <v>1983775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>3848</v>
@@ -2103,13 +2097,13 @@
         <v>4051452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2171,13 @@
         <v>3863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2192,13 +2186,13 @@
         <v>1026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2207,13 +2201,13 @@
         <v>4889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>543023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -2243,13 +2237,13 @@
         <v>548114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>1023</v>
@@ -2258,13 +2252,13 @@
         <v>1091137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2326,13 @@
         <v>26154</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2347,13 +2341,13 @@
         <v>19183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2362,10 +2356,10 @@
         <v>45338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>128</v>
@@ -2386,10 +2380,10 @@
         <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2398,13 +2392,13 @@
         <v>3512917</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>6498</v>
@@ -2413,13 +2407,13 @@
         <v>6864380</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176A186-4DA2-4B82-88B5-37F6C7A19C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6E65F-8EE8-45BD-B67F-CC57C9253F9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2511,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2618,13 +2612,13 @@
         <v>12008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2633,13 +2627,13 @@
         <v>10408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2648,13 +2642,13 @@
         <v>22416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2663,13 @@
         <v>527239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>1404</v>
@@ -2684,13 +2678,13 @@
         <v>822783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>2076</v>
@@ -2699,13 +2693,13 @@
         <v>1350022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2767,13 @@
         <v>13707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2788,13 +2782,13 @@
         <v>7934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -2803,13 +2797,13 @@
         <v>21641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2818,13 @@
         <v>2146127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>2903</v>
@@ -2839,13 +2833,13 @@
         <v>2238203</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>4876</v>
@@ -2854,13 +2848,13 @@
         <v>4384329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,7 +2910,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2928,10 +2922,10 @@
         <v>6128</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>162</v>
@@ -2943,13 +2937,13 @@
         <v>1359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2958,7 +2952,7 @@
         <v>7487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>163</v>
@@ -2979,13 +2973,13 @@
         <v>666911</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1000</v>
@@ -2994,13 +2988,13 @@
         <v>712209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -3009,7 +3003,7 @@
         <v>1379120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>167</v>
@@ -3086,7 +3080,7 @@
         <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>170</v>
@@ -3098,13 +3092,13 @@
         <v>19700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -3113,13 +3107,13 @@
         <v>51543</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3128,10 @@
         <v>3340277</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>75</v>
@@ -3149,13 +3143,13 @@
         <v>3773196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>8624</v>
@@ -3164,13 +3158,13 @@
         <v>7113473</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9162A48-A06B-4388-B5C3-F85632725BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2890635-AF1E-4CAB-A19D-0258FCA481C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{565697F0-A9E7-4CD5-962A-4034934698B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DECB24F-4361-4D7B-A3F9-F3C307A4A028}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -70,481 +70,505 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,73%</t>
+    <t>99,71%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -553,13 +577,10 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>99,06%</t>
@@ -568,13 +589,10 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA3F2D6-250A-4611-ABE3-47B1B8D33986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D8131-82E4-4445-A5FF-90A4B0BE7A5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1188,7 +1206,7 @@
         <v>2121</v>
       </c>
       <c r="N5" s="7">
-        <v>2276145</v>
+        <v>2276146</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1239,7 +1257,7 @@
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311256</v>
+        <v>2311257</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1456,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1486,10 +1504,10 @@
         <v>457578</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -1501,10 +1519,10 @@
         <v>938759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>46</v>
@@ -1575,13 +1593,13 @@
         <v>22968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1590,13 +1608,13 @@
         <v>24778</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -1605,13 +1623,13 @@
         <v>47746</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,7 +1644,7 @@
         <v>3396814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>70</v>
@@ -1737,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67520E59-4A1A-4DCD-9B07-CC965C801FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A22B45-7EE3-4A9F-B0AA-2D074E1C86A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1864,10 +1882,10 @@
         <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -1876,13 +1894,13 @@
         <v>13633</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -1891,13 +1909,13 @@
         <v>27216</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1930,13 @@
         <v>740764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>880</v>
@@ -1927,13 +1945,13 @@
         <v>981027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>1627</v>
@@ -1942,13 +1960,13 @@
         <v>1721791</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2034,13 @@
         <v>8708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2034,10 +2052,10 @@
         <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2046,13 +2064,13 @@
         <v>13233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2085,13 @@
         <v>2067677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1904</v>
@@ -2082,13 +2100,13 @@
         <v>1983775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>3848</v>
@@ -2097,13 +2115,13 @@
         <v>4051452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2189,13 @@
         <v>3863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2186,13 +2204,13 @@
         <v>1026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2201,13 +2219,13 @@
         <v>4889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2240,13 @@
         <v>543023</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -2237,10 +2255,10 @@
         <v>548114</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -2252,13 +2270,13 @@
         <v>1091137</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2350,7 @@
         <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2341,13 +2359,13 @@
         <v>19183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2356,13 +2374,13 @@
         <v>45338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2395,13 @@
         <v>3351464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2392,13 +2410,13 @@
         <v>3512917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>6498</v>
@@ -2407,13 +2425,13 @@
         <v>6864380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6E65F-8EE8-45BD-B67F-CC57C9253F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272DE59-304B-4102-B42F-4BACD177382E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2612,13 +2630,13 @@
         <v>12008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2627,13 +2645,13 @@
         <v>10408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2642,13 +2660,13 @@
         <v>22416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2681,13 @@
         <v>527239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>1404</v>
@@ -2678,13 +2696,13 @@
         <v>822783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>2076</v>
@@ -2693,13 +2711,13 @@
         <v>1350022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2785,13 @@
         <v>13707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2782,13 +2800,13 @@
         <v>7934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -2797,13 +2815,13 @@
         <v>21641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2836,13 @@
         <v>2146127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>2903</v>
@@ -2833,13 +2851,13 @@
         <v>2238203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>4876</v>
@@ -2848,13 +2866,13 @@
         <v>4384329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2940,13 @@
         <v>6128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2937,13 +2955,13 @@
         <v>1359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2952,13 +2970,13 @@
         <v>7487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,10 +2994,10 @@
         <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>1000</v>
@@ -2988,10 +3006,10 @@
         <v>712209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3003,13 +3021,13 @@
         <v>1379120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3095,13 @@
         <v>31843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3095,10 +3113,10 @@
         <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -3107,13 +3125,13 @@
         <v>51543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3146,13 @@
         <v>3340277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>5307</v>
@@ -3143,13 +3161,13 @@
         <v>3773196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>8624</v>
@@ -3158,13 +3176,13 @@
         <v>7113473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2890635-AF1E-4CAB-A19D-0258FCA481C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C79F63F-9292-4959-8765-2F58143FFCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DECB24F-4361-4D7B-A3F9-F3C307A4A028}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1AC2B465-DCCB-419D-8CFC-579B5072DC46}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -463,136 +463,142 @@
     <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>99,32%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D8131-82E4-4445-A5FF-90A4B0BE7A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1896D2CD-4B50-4ECE-A9B9-621BE80776D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1522,7 @@
         <v>849</v>
       </c>
       <c r="N11" s="7">
-        <v>938759</v>
+        <v>938760</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1567,7 +1573,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1671,7 +1677,7 @@
         <v>6448</v>
       </c>
       <c r="N14" s="7">
-        <v>6920926</v>
+        <v>6920925</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>75</v>
@@ -1722,7 +1728,7 @@
         <v>6492</v>
       </c>
       <c r="N15" s="7">
-        <v>6968672</v>
+        <v>6968671</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A22B45-7EE3-4A9F-B0AA-2D074E1C86A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EC6B4-91A5-4952-BEFB-917D0FE4FECD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2267,7 +2273,7 @@
         <v>1023</v>
       </c>
       <c r="N11" s="7">
-        <v>1091137</v>
+        <v>1091138</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>119</v>
@@ -2318,7 +2324,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2506,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272DE59-304B-4102-B42F-4BACD177382E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC848E5D-89CA-47CA-95BA-B0128BC94E91}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2627,28 +2633,28 @@
         <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>12008</v>
+        <v>11333</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>10408</v>
+        <v>9574</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>145</v>
@@ -2657,16 +2663,16 @@
         <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>22416</v>
+        <v>20907</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,22 +2684,22 @@
         <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>527239</v>
+        <v>501287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>1404</v>
       </c>
       <c r="I5" s="7">
-        <v>822783</v>
+        <v>743594</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>151</v>
@@ -2702,22 +2708,22 @@
         <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>2076</v>
       </c>
       <c r="N5" s="7">
-        <v>1350022</v>
+        <v>1244882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539247</v>
+        <v>512620</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2744,7 +2750,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2759,7 +2765,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1372438</v>
+        <v>1265789</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2782,46 +2788,46 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>13707</v>
+        <v>12692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>7934</v>
+        <v>7120</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>21641</v>
+        <v>19812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,22 +2839,22 @@
         <v>1973</v>
       </c>
       <c r="D8" s="7">
-        <v>2146127</v>
+        <v>2275558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>2903</v>
       </c>
       <c r="I8" s="7">
-        <v>2238203</v>
+        <v>2227540</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>165</v>
@@ -2857,22 +2863,22 @@
         <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>4876</v>
       </c>
       <c r="N8" s="7">
-        <v>4384329</v>
+        <v>4503098</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,7 +2890,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159834</v>
+        <v>2288250</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2899,7 +2905,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246137</v>
+        <v>2234660</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2914,7 +2920,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4405970</v>
+        <v>4522910</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2940,10 +2946,10 @@
         <v>6128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>170</v>
@@ -2952,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1359</v>
+        <v>1236</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>109</v>
@@ -2961,16 +2967,16 @@
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>7487</v>
+        <v>7364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>171</v>
@@ -2988,28 +2994,28 @@
         <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>666911</v>
+        <v>640495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>1000</v>
       </c>
       <c r="I11" s="7">
-        <v>712209</v>
+        <v>658907</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>46</v>
@@ -3018,10 +3024,10 @@
         <v>1672</v>
       </c>
       <c r="N11" s="7">
-        <v>1379120</v>
+        <v>1299402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>175</v>
@@ -3039,7 +3045,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3054,7 +3060,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713568</v>
+        <v>660143</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3069,7 +3075,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1386607</v>
+        <v>1306766</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3092,46 +3098,46 @@
         <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>31843</v>
+        <v>30153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>19700</v>
+        <v>17930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>51543</v>
+        <v>48083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,46 +3149,46 @@
         <v>3317</v>
       </c>
       <c r="D14" s="7">
-        <v>3340277</v>
+        <v>3417341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>5307</v>
       </c>
       <c r="I14" s="7">
-        <v>3773196</v>
+        <v>3630041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>8624</v>
       </c>
       <c r="N14" s="7">
-        <v>7113473</v>
+        <v>7047382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3200,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3372120</v>
+        <v>3447494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3209,7 +3215,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3792896</v>
+        <v>3647971</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3224,7 +3230,7 @@
         <v>8704</v>
       </c>
       <c r="N15" s="7">
-        <v>7165016</v>
+        <v>7095465</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
